--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Wnt2-Fzd5.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H2">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.338873144699519</v>
+        <v>10.000565</v>
       </c>
       <c r="N2">
-        <v>8.338873144699519</v>
+        <v>30.001695</v>
       </c>
       <c r="O2">
-        <v>0.5919596364116285</v>
+        <v>0.6316353758144477</v>
       </c>
       <c r="P2">
-        <v>0.5919596364116285</v>
+        <v>0.6316353758144477</v>
       </c>
       <c r="Q2">
-        <v>18.75362580562683</v>
+        <v>25.20950425652</v>
       </c>
       <c r="R2">
-        <v>18.75362580562683</v>
+        <v>226.88553830868</v>
       </c>
       <c r="S2">
-        <v>0.5919596364116285</v>
+        <v>0.6316353758144477</v>
       </c>
       <c r="T2">
-        <v>0.5919596364116285</v>
+        <v>0.6316353758144477</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H3">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.1851961211806</v>
+        <v>4.264793333333333</v>
       </c>
       <c r="N3">
-        <v>4.1851961211806</v>
+        <v>12.79438</v>
       </c>
       <c r="O3">
-        <v>0.2970985565094237</v>
+        <v>0.2693642149089528</v>
       </c>
       <c r="P3">
-        <v>0.2970985565094237</v>
+        <v>0.2693642149089528</v>
       </c>
       <c r="Q3">
-        <v>9.412255183384255</v>
+        <v>10.75072515301333</v>
       </c>
       <c r="R3">
-        <v>9.412255183384255</v>
+        <v>96.75652637712</v>
       </c>
       <c r="S3">
-        <v>0.2970985565094237</v>
+        <v>0.2693642149089528</v>
       </c>
       <c r="T3">
-        <v>0.2970985565094237</v>
+        <v>0.2693642149089528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.24894005223563</v>
+        <v>2.520808</v>
       </c>
       <c r="H4">
-        <v>2.24894005223563</v>
+        <v>7.562424</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.56282556912676</v>
+        <v>1.567455</v>
       </c>
       <c r="N4">
-        <v>1.56282556912676</v>
+        <v>4.702364999999999</v>
       </c>
       <c r="O4">
-        <v>0.1109418070789479</v>
+        <v>0.09900040927659938</v>
       </c>
       <c r="P4">
-        <v>0.1109418070789479</v>
+        <v>0.09900040927659938</v>
       </c>
       <c r="Q4">
-        <v>3.514701017067114</v>
+        <v>3.95125310364</v>
       </c>
       <c r="R4">
-        <v>3.514701017067114</v>
+        <v>35.56127793276</v>
       </c>
       <c r="S4">
-        <v>0.1109418070789479</v>
+        <v>0.09900040927659938</v>
       </c>
       <c r="T4">
-        <v>0.1109418070789479</v>
+        <v>0.09900040927659938</v>
       </c>
     </row>
   </sheetData>
